--- a/FILES/Batch 40/40 Batch.xlsx
+++ b/FILES/Batch 40/40 Batch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Premier\IEB 2023\Working Files\Batch 40\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Premier\IEB 2023\excel_import\FILES\Batch 40\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981FB0FB-1459-4CA9-9F3F-F41683081142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C570DC5F-C1A8-4CDF-8933-46D502D1C29B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,8 +562,7 @@
     <t>Abdullah Mohammad Sayed</t>
   </si>
   <si>
-    <t>Overall 
-(4)</t>
+    <t xml:space="preserve">Overall </t>
   </si>
 </sst>
 </file>
@@ -582,13 +581,13 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -628,23 +627,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -653,15 +657,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -973,20 +969,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.21875" style="1" customWidth="1"/>
     <col min="3" max="14" width="6" customWidth="1"/>
     <col min="15" max="15" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -1004,11 +1000,11 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="28.8">
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1055,7 +1051,7 @@
       <c r="A3" s="5">
         <v>1903610201805</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6">
@@ -1102,7 +1098,7 @@
       <c r="A4" s="5">
         <v>2103910202119</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="6">
@@ -1149,7 +1145,7 @@
       <c r="A5" s="5">
         <v>2103910202127</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="6">
@@ -1196,7 +1192,7 @@
       <c r="A6" s="5">
         <v>2103910202129</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6">
@@ -1243,7 +1239,7 @@
       <c r="A7" s="5">
         <v>2104010202153</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="6">
@@ -1290,7 +1286,7 @@
       <c r="A8" s="5">
         <v>2104010202154</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6">
@@ -1337,7 +1333,7 @@
       <c r="A9" s="5">
         <v>2104010202157</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6">
@@ -1384,7 +1380,7 @@
       <c r="A10" s="5">
         <v>2104010202158</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="6">
@@ -1431,7 +1427,7 @@
       <c r="A11" s="5">
         <v>2104010202159</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="6">
@@ -1478,7 +1474,7 @@
       <c r="A12" s="5">
         <v>2104010202160</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="6">
@@ -1525,7 +1521,7 @@
       <c r="A13" s="5">
         <v>2104010202161</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="6">
@@ -1572,7 +1568,7 @@
       <c r="A14" s="5">
         <v>2104010202162</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="6">
@@ -1619,7 +1615,7 @@
       <c r="A15" s="5">
         <v>2104010202163</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="6">
@@ -1666,7 +1662,7 @@
       <c r="A16" s="5">
         <v>2104010202164</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="6">
@@ -1713,7 +1709,7 @@
       <c r="A17" s="5">
         <v>2104010202165</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="6">
@@ -1760,7 +1756,7 @@
       <c r="A18" s="5">
         <v>2104010202166</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="6">
@@ -1807,7 +1803,7 @@
       <c r="A19" s="5">
         <v>2104010202167</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="6">
@@ -1854,7 +1850,7 @@
       <c r="A20" s="5">
         <v>2104010202168</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="6">
@@ -1901,7 +1897,7 @@
       <c r="A21" s="5">
         <v>2104010202169</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="6">
@@ -1948,7 +1944,7 @@
       <c r="A22" s="5">
         <v>2104010202170</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="6">
@@ -1995,7 +1991,7 @@
       <c r="A23" s="5">
         <v>2104010202173</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="6">
@@ -2042,7 +2038,7 @@
       <c r="A24" s="5">
         <v>2104010202174</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="6">
@@ -2089,7 +2085,7 @@
       <c r="A25" s="5">
         <v>2104010202176</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="6">
@@ -2136,7 +2132,7 @@
       <c r="A26" s="5">
         <v>2104010202177</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="6">
@@ -2183,7 +2179,7 @@
       <c r="A27" s="5">
         <v>2104010202180</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="6">
@@ -2230,7 +2226,7 @@
       <c r="A28" s="5">
         <v>2104010202181</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="6">
@@ -2277,7 +2273,7 @@
       <c r="A29" s="5">
         <v>2104010202182</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="6">
@@ -2324,7 +2320,7 @@
       <c r="A30" s="5">
         <v>2104010202185</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="6">
@@ -2371,7 +2367,7 @@
       <c r="A31" s="5">
         <v>2104010202186</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="6">
@@ -2418,7 +2414,7 @@
       <c r="A32" s="5">
         <v>2104010202187</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="6">
@@ -2465,7 +2461,7 @@
       <c r="A33" s="5">
         <v>2104010202188</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="6">
@@ -2512,7 +2508,7 @@
       <c r="A34" s="5">
         <v>2104010202190</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="6">
@@ -2559,7 +2555,7 @@
       <c r="A35" s="5">
         <v>2104010202191</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="6">
@@ -2606,7 +2602,7 @@
       <c r="A36" s="5">
         <v>2104010202192</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="6">
@@ -2653,7 +2649,7 @@
       <c r="A37" s="5">
         <v>2104010202194</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="6">
@@ -2700,7 +2696,7 @@
       <c r="A38" s="5">
         <v>2104010202195</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="6">
@@ -2747,7 +2743,7 @@
       <c r="A39" s="5">
         <v>2104010202196</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="6">
@@ -2794,7 +2790,7 @@
       <c r="A40" s="5">
         <v>2104010202198</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C40" s="6">
@@ -2841,7 +2837,7 @@
       <c r="A41" s="5">
         <v>2104010202199</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C41" s="6">
@@ -2888,7 +2884,7 @@
       <c r="A42" s="5">
         <v>2104010202200</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C42" s="6">
@@ -2935,7 +2931,7 @@
       <c r="A43" s="5">
         <v>2104010202201</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="6">
@@ -2982,7 +2978,7 @@
       <c r="A44" s="5">
         <v>2104010202202</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C44" s="6">
@@ -3029,7 +3025,7 @@
       <c r="A45" s="5">
         <v>2104010202203</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C45" s="6">
@@ -3076,7 +3072,7 @@
       <c r="A46" s="5">
         <v>2104010202204</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="6">
@@ -3123,7 +3119,7 @@
       <c r="A47" s="5">
         <v>2104010202207</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="6">
@@ -3170,7 +3166,7 @@
       <c r="A48" s="5">
         <v>2104010202208</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="6">
@@ -3217,7 +3213,7 @@
       <c r="A49" s="5">
         <v>2104010202210</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C49" s="6">
@@ -3264,7 +3260,7 @@
       <c r="A50" s="5">
         <v>2104010202211</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="6">
@@ -3311,7 +3307,7 @@
       <c r="A51" s="5">
         <v>2104010202212</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="6">
@@ -3358,7 +3354,7 @@
       <c r="A52" s="5">
         <v>2104010202213</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="6">
@@ -3405,7 +3401,7 @@
       <c r="A53" s="5">
         <v>2104010202214</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="6">
@@ -3452,7 +3448,7 @@
       <c r="A54" s="5">
         <v>2104010202215</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C54" s="6">
@@ -3499,7 +3495,7 @@
       <c r="A55" s="5">
         <v>2104010202216</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C55" s="6">
@@ -3546,7 +3542,7 @@
       <c r="A56" s="5">
         <v>2104010202217</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C56" s="6">
@@ -3593,7 +3589,7 @@
       <c r="A57" s="5">
         <v>2104010202218</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C57" s="6">
@@ -3640,7 +3636,7 @@
       <c r="A58" s="5">
         <v>2104010202219</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C58" s="6">
@@ -3687,7 +3683,7 @@
       <c r="A59" s="5">
         <v>2104010202220</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C59" s="6">
@@ -3734,7 +3730,7 @@
       <c r="A60" s="5">
         <v>2104010202221</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C60" s="6">
@@ -3781,7 +3777,7 @@
       <c r="A61" s="5">
         <v>2104010202222</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C61" s="6">
@@ -3828,7 +3824,7 @@
       <c r="A62" s="5">
         <v>2104010202225</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C62" s="6">
@@ -3875,7 +3871,7 @@
       <c r="A63" s="5">
         <v>2104010202226</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="6">
@@ -3922,7 +3918,7 @@
       <c r="A64" s="5">
         <v>2104010202227</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C64" s="6">
@@ -3969,7 +3965,7 @@
       <c r="A65" s="5">
         <v>2104010202228</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C65" s="6">
@@ -4016,7 +4012,7 @@
       <c r="A66" s="5">
         <v>2104010202229</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C66" s="6">
@@ -4063,7 +4059,7 @@
       <c r="A67" s="5">
         <v>2104010202230</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C67" s="6">
@@ -4110,7 +4106,7 @@
       <c r="A68" s="5">
         <v>2104010202231</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C68" s="6">
@@ -4157,7 +4153,7 @@
       <c r="A69" s="5">
         <v>2104010202232</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C69" s="6">
@@ -4204,7 +4200,7 @@
       <c r="A70" s="5">
         <v>2104010202233</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C70" s="6">
@@ -4251,7 +4247,7 @@
       <c r="A71" s="5">
         <v>2104010202235</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C71" s="6">
@@ -4298,7 +4294,7 @@
       <c r="A72" s="5">
         <v>2104010202236</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C72" s="6">
@@ -4345,7 +4341,7 @@
       <c r="A73" s="5">
         <v>2104010202237</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C73" s="6">
@@ -4392,7 +4388,7 @@
       <c r="A74" s="5">
         <v>2104010202238</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C74" s="6">
@@ -4439,7 +4435,7 @@
       <c r="A75" s="5">
         <v>2104010202239</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C75" s="6">
@@ -4486,7 +4482,7 @@
       <c r="A76" s="5">
         <v>2104010202240</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C76" s="6">
@@ -4533,7 +4529,7 @@
       <c r="A77" s="5">
         <v>2104010202241</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C77" s="6">
@@ -4580,7 +4576,7 @@
       <c r="A78" s="5">
         <v>2104010202242</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C78" s="6">
@@ -4627,7 +4623,7 @@
       <c r="A79" s="5">
         <v>2104010202243</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C79" s="6">
@@ -4674,7 +4670,7 @@
       <c r="A80" s="5">
         <v>2104010202244</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C80" s="6">
@@ -4721,7 +4717,7 @@
       <c r="A81" s="5">
         <v>2104010202246</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C81" s="6">
@@ -4768,7 +4764,7 @@
       <c r="A82" s="5">
         <v>2104010202247</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C82" s="6">
@@ -4815,7 +4811,7 @@
       <c r="A83" s="5">
         <v>2104010202248</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C83" s="6">
@@ -4862,7 +4858,7 @@
       <c r="A84" s="5">
         <v>2104010202249</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C84" s="6">
@@ -4909,7 +4905,7 @@
       <c r="A85" s="5">
         <v>2104010202250</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>97</v>
       </c>
       <c r="C85" s="6">
@@ -4956,7 +4952,7 @@
       <c r="A86" s="5">
         <v>2104010202252</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C86" s="6">
@@ -5003,7 +4999,7 @@
       <c r="A87" s="5">
         <v>2104010202253</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>99</v>
       </c>
       <c r="C87" s="6">
@@ -5050,7 +5046,7 @@
       <c r="A88" s="5">
         <v>2104010202254</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C88" s="6">
@@ -5097,7 +5093,7 @@
       <c r="A89" s="5">
         <v>2104010202255</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C89" s="6">
@@ -5144,7 +5140,7 @@
       <c r="A90" s="5">
         <v>2104010202256</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C90" s="6">
@@ -5191,7 +5187,7 @@
       <c r="A91" s="5">
         <v>2104010202258</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C91" s="6">
@@ -5238,7 +5234,7 @@
       <c r="A92" s="5">
         <v>2104010202259</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C92" s="6">
@@ -5285,7 +5281,7 @@
       <c r="A93" s="5">
         <v>2104010202260</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C93" s="6">
@@ -5332,7 +5328,7 @@
       <c r="A94" s="5">
         <v>2104010202261</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C94" s="6">
@@ -5379,7 +5375,7 @@
       <c r="A95" s="5">
         <v>2104010202262</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>107</v>
       </c>
       <c r="C95" s="6">
@@ -5426,7 +5422,7 @@
       <c r="A96" s="5">
         <v>2104010202263</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C96" s="6">
@@ -5473,7 +5469,7 @@
       <c r="A97" s="5">
         <v>2104010202264</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>109</v>
       </c>
       <c r="C97" s="6">
@@ -5520,7 +5516,7 @@
       <c r="A98" s="5">
         <v>2104010202265</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C98" s="6">
@@ -5567,7 +5563,7 @@
       <c r="A99" s="5">
         <v>2104010202266</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>111</v>
       </c>
       <c r="C99" s="6">
@@ -5614,7 +5610,7 @@
       <c r="A100" s="5">
         <v>2104010202267</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C100" s="6">
@@ -5661,7 +5657,7 @@
       <c r="A101" s="5">
         <v>2104010202268</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="8" t="s">
         <v>113</v>
       </c>
       <c r="C101" s="6">
@@ -5708,7 +5704,7 @@
       <c r="A102" s="5">
         <v>2104010202269</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C102" s="6">
@@ -5755,7 +5751,7 @@
       <c r="A103" s="5">
         <v>2104010202270</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="8" t="s">
         <v>115</v>
       </c>
       <c r="C103" s="6">
@@ -5802,7 +5798,7 @@
       <c r="A104" s="5">
         <v>2104010202271</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C104" s="6">
@@ -5849,7 +5845,7 @@
       <c r="A105" s="5">
         <v>2104010202272</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C105" s="6">
@@ -5896,7 +5892,7 @@
       <c r="A106" s="5">
         <v>2104010202273</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="8" t="s">
         <v>118</v>
       </c>
       <c r="C106" s="6">
@@ -5943,7 +5939,7 @@
       <c r="A107" s="5">
         <v>2104010202274</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C107" s="6">
@@ -5990,7 +5986,7 @@
       <c r="A108" s="5">
         <v>2104010202275</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C108" s="6">
@@ -6037,7 +6033,7 @@
       <c r="A109" s="5">
         <v>2104010202277</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C109" s="6">
@@ -6084,7 +6080,7 @@
       <c r="A110" s="5">
         <v>2104010202278</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="8" t="s">
         <v>122</v>
       </c>
       <c r="C110" s="6">
@@ -6131,7 +6127,7 @@
       <c r="A111" s="5">
         <v>2104010202279</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="8" t="s">
         <v>123</v>
       </c>
       <c r="C111" s="6">
@@ -6178,7 +6174,7 @@
       <c r="A112" s="5">
         <v>2104010202280</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="8" t="s">
         <v>124</v>
       </c>
       <c r="C112" s="6">
@@ -6225,7 +6221,7 @@
       <c r="A113" s="5">
         <v>2104010202281</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="6">
@@ -6272,7 +6268,7 @@
       <c r="A114" s="5">
         <v>2104010202282</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="8" t="s">
         <v>126</v>
       </c>
       <c r="C114" s="6">
@@ -6319,7 +6315,7 @@
       <c r="A115" s="5">
         <v>2104010202283</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C115" s="6">
@@ -6366,7 +6362,7 @@
       <c r="A116" s="5">
         <v>2104010202284</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C116" s="6">
@@ -6413,7 +6409,7 @@
       <c r="A117" s="5">
         <v>2104010202285</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C117" s="6">
@@ -6460,7 +6456,7 @@
       <c r="A118" s="5">
         <v>2104010202287</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="8" t="s">
         <v>130</v>
       </c>
       <c r="C118" s="6">
@@ -6507,7 +6503,7 @@
       <c r="A119" s="5">
         <v>2104010202288</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="8" t="s">
         <v>131</v>
       </c>
       <c r="C119" s="6">
@@ -6554,7 +6550,7 @@
       <c r="A120" s="5">
         <v>2104010202289</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="8" t="s">
         <v>132</v>
       </c>
       <c r="C120" s="6">
@@ -6601,7 +6597,7 @@
       <c r="A121" s="5">
         <v>2104010202290</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C121" s="6">
@@ -6648,7 +6644,7 @@
       <c r="A122" s="5">
         <v>2104010202291</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C122" s="6">
@@ -6695,7 +6691,7 @@
       <c r="A123" s="5">
         <v>2104010202292</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="8" t="s">
         <v>135</v>
       </c>
       <c r="C123" s="6">
@@ -6742,7 +6738,7 @@
       <c r="A124" s="5">
         <v>2104010202293</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C124" s="6">
@@ -6789,7 +6785,7 @@
       <c r="A125" s="5">
         <v>2104010202294</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="8" t="s">
         <v>137</v>
       </c>
       <c r="C125" s="6">
@@ -6836,7 +6832,7 @@
       <c r="A126" s="5">
         <v>2104010202296</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C126" s="6">
@@ -6883,7 +6879,7 @@
       <c r="A127" s="5">
         <v>2104010202297</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="8" t="s">
         <v>139</v>
       </c>
       <c r="C127" s="6">
@@ -6930,7 +6926,7 @@
       <c r="A128" s="5">
         <v>2104010202298</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C128" s="6">
@@ -6977,7 +6973,7 @@
       <c r="A129" s="5">
         <v>2104010202299</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C129" s="6">
@@ -7024,7 +7020,7 @@
       <c r="A130" s="5">
         <v>2104010202300</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C130" s="6">
@@ -7071,7 +7067,7 @@
       <c r="A131" s="5">
         <v>2104010202301</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C131" s="6">
@@ -7118,7 +7114,7 @@
       <c r="A132" s="5">
         <v>2104010202302</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C132" s="6">
@@ -7165,7 +7161,7 @@
       <c r="A133" s="5">
         <v>2104010202303</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C133" s="6">
@@ -7212,7 +7208,7 @@
       <c r="A134" s="5">
         <v>2104010202304</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="8" t="s">
         <v>146</v>
       </c>
       <c r="C134" s="6">
@@ -7259,7 +7255,7 @@
       <c r="A135" s="5">
         <v>2104010202305</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C135" s="6">
@@ -7306,7 +7302,7 @@
       <c r="A136" s="5">
         <v>2104010202306</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C136" s="6">
@@ -7353,7 +7349,7 @@
       <c r="A137" s="5">
         <v>2104010202308</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C137" s="6">
@@ -7400,7 +7396,7 @@
       <c r="A138" s="5">
         <v>2104010202309</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C138" s="6">
@@ -7447,7 +7443,7 @@
       <c r="A139" s="5">
         <v>2104010202310</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C139" s="6">
@@ -7494,7 +7490,7 @@
       <c r="A140" s="5">
         <v>2104010202311</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C140" s="6">
@@ -7541,7 +7537,7 @@
       <c r="A141" s="5">
         <v>2104010202312</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C141" s="6">
@@ -7588,7 +7584,7 @@
       <c r="A142" s="5">
         <v>2104010202314</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C142" s="6">
@@ -7635,7 +7631,7 @@
       <c r="A143" s="5">
         <v>2104010202315</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="8" t="s">
         <v>155</v>
       </c>
       <c r="C143" s="6">
@@ -7682,7 +7678,7 @@
       <c r="A144" s="5">
         <v>2104010202317</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C144" s="6">
@@ -7729,7 +7725,7 @@
       <c r="A145" s="5">
         <v>2104010202318</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C145" s="6">
@@ -7776,7 +7772,7 @@
       <c r="A146" s="5">
         <v>2104010202319</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C146" s="6">
@@ -7823,7 +7819,7 @@
       <c r="A147" s="5">
         <v>2104010202320</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C147" s="6">
@@ -7870,7 +7866,7 @@
       <c r="A148" s="5">
         <v>2104010202321</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="8" t="s">
         <v>160</v>
       </c>
       <c r="C148" s="6">
@@ -7917,7 +7913,7 @@
       <c r="A149" s="5">
         <v>2104010202323</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C149" s="6">
@@ -7964,7 +7960,7 @@
       <c r="A150" s="5">
         <v>2104010202324</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B150" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C150" s="6">
@@ -8011,7 +8007,7 @@
       <c r="A151" s="5">
         <v>2104010202325</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="8" t="s">
         <v>163</v>
       </c>
       <c r="C151" s="6">
@@ -8058,7 +8054,7 @@
       <c r="A152" s="5">
         <v>2104010202326</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="8" t="s">
         <v>164</v>
       </c>
       <c r="C152" s="6">
@@ -8105,7 +8101,7 @@
       <c r="A153" s="5">
         <v>2104010202327</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C153" s="6">
@@ -8152,7 +8148,7 @@
       <c r="A154" s="5">
         <v>2104010202328</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="8" t="s">
         <v>166</v>
       </c>
       <c r="C154" s="6">
@@ -8199,7 +8195,7 @@
       <c r="A155" s="5">
         <v>2104010202330</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="8" t="s">
         <v>167</v>
       </c>
       <c r="C155" s="6">
@@ -8246,7 +8242,7 @@
       <c r="A156" s="5">
         <v>2104010202331</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="8" t="s">
         <v>168</v>
       </c>
       <c r="C156" s="6">
@@ -8293,7 +8289,7 @@
       <c r="A157" s="5">
         <v>2104010202332</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C157" s="6">
@@ -8340,7 +8336,7 @@
       <c r="A158" s="5">
         <v>2104010202333</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="8" t="s">
         <v>170</v>
       </c>
       <c r="C158" s="6">
@@ -8387,7 +8383,7 @@
       <c r="A159" s="5">
         <v>2104010202334</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="8" t="s">
         <v>171</v>
       </c>
       <c r="C159" s="6">
@@ -8434,7 +8430,7 @@
       <c r="A160" s="5">
         <v>2104010202335</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="8" t="s">
         <v>172</v>
       </c>
       <c r="C160" s="6">
@@ -8481,7 +8477,7 @@
       <c r="A161" s="5">
         <v>2104010202336</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="8" t="s">
         <v>173</v>
       </c>
       <c r="C161" s="6">
@@ -8528,7 +8524,7 @@
       <c r="A162" s="5">
         <v>2104010202337</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="8" t="s">
         <v>174</v>
       </c>
       <c r="C162" s="6">
@@ -8575,7 +8571,7 @@
       <c r="A163" s="5">
         <v>2104010202339</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C163" s="6">
@@ -8622,7 +8618,7 @@
       <c r="A164" s="5">
         <v>2104010202340</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C164" s="6">
@@ -8669,7 +8665,7 @@
       <c r="A165" s="5">
         <v>2104010202341</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C165" s="6">
@@ -8716,7 +8712,7 @@
       <c r="A166" s="5">
         <v>2104010202342</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="8" t="s">
         <v>178</v>
       </c>
       <c r="C166" s="6">
@@ -8763,7 +8759,7 @@
       <c r="A167" s="5">
         <v>2104010202344</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="8" t="s">
         <v>179</v>
       </c>
       <c r="C167" s="6">
@@ -8810,12 +8806,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:N167">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>